--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4055.792888734587</v>
+        <v>4202.140096098724</v>
       </c>
       <c r="AB2" t="n">
-        <v>5549.314759321056</v>
+        <v>5749.553464819803</v>
       </c>
       <c r="AC2" t="n">
-        <v>5019.695947203427</v>
+        <v>5200.824151686153</v>
       </c>
       <c r="AD2" t="n">
-        <v>4055792.888734587</v>
+        <v>4202140.096098724</v>
       </c>
       <c r="AE2" t="n">
-        <v>5549314.759321056</v>
+        <v>5749553.464819803</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.429185073933704e-07</v>
+        <v>1.189567564019829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.6376953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5019695.947203427</v>
+        <v>5200824.151686152</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1904.423110820108</v>
+        <v>2001.902574874962</v>
       </c>
       <c r="AB3" t="n">
-        <v>2605.715717442084</v>
+        <v>2739.091420652375</v>
       </c>
       <c r="AC3" t="n">
-        <v>2357.029866514389</v>
+        <v>2477.676379804266</v>
       </c>
       <c r="AD3" t="n">
-        <v>1904423.110820108</v>
+        <v>2001902.574874962</v>
       </c>
       <c r="AE3" t="n">
-        <v>2605715.717442084</v>
+        <v>2739091.420652375</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.016289275773575e-06</v>
+        <v>1.880401239377845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95279947916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2357029.866514389</v>
+        <v>2477676.379804266</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1548.061199511387</v>
+        <v>1621.234892702006</v>
       </c>
       <c r="AB4" t="n">
-        <v>2118.125628811537</v>
+        <v>2218.245104030453</v>
       </c>
       <c r="AC4" t="n">
-        <v>1915.974691605755</v>
+        <v>2006.538904628342</v>
       </c>
       <c r="AD4" t="n">
-        <v>1548061.199511387</v>
+        <v>1621234.892702007</v>
       </c>
       <c r="AE4" t="n">
-        <v>2118125.628811537</v>
+        <v>2218245.104030453</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.159606137354874e-06</v>
+        <v>2.14557495572557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1915974.691605754</v>
+        <v>2006538.904628342</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1390.172830840296</v>
+        <v>1463.261183176345</v>
       </c>
       <c r="AB5" t="n">
-        <v>1902.095797252529</v>
+        <v>2002.098505349247</v>
       </c>
       <c r="AC5" t="n">
-        <v>1720.562443970965</v>
+        <v>1811.021033961615</v>
       </c>
       <c r="AD5" t="n">
-        <v>1390172.830840296</v>
+        <v>1463261.183176345</v>
       </c>
       <c r="AE5" t="n">
-        <v>1902095.797252529</v>
+        <v>2002098.505349247</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.235139258540066e-06</v>
+        <v>2.285331005579192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.30305989583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1720562.443970965</v>
+        <v>1811021.033961615</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1290.571761672407</v>
+        <v>1363.745365354476</v>
       </c>
       <c r="AB6" t="n">
-        <v>1765.817220327971</v>
+        <v>1865.936573077338</v>
       </c>
       <c r="AC6" t="n">
-        <v>1597.290103159903</v>
+        <v>1687.854205401265</v>
       </c>
       <c r="AD6" t="n">
-        <v>1290571.761672407</v>
+        <v>1363745.365354476</v>
       </c>
       <c r="AE6" t="n">
-        <v>1765817.220327971</v>
+        <v>1865936.573077338</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.283596229980258e-06</v>
+        <v>2.37498908947787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.83919270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1597290.103159903</v>
+        <v>1687854.205401265</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1232.362563889153</v>
+        <v>1305.536167571223</v>
       </c>
       <c r="AB7" t="n">
-        <v>1686.172827912358</v>
+        <v>1786.292180661725</v>
       </c>
       <c r="AC7" t="n">
-        <v>1525.246859774829</v>
+        <v>1615.810962016191</v>
       </c>
       <c r="AD7" t="n">
-        <v>1232362.563889153</v>
+        <v>1305536.167571223</v>
       </c>
       <c r="AE7" t="n">
-        <v>1686172.827912358</v>
+        <v>1786292.180661725</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315714145539846e-06</v>
+        <v>2.434415642196839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54947916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1525246.859774829</v>
+        <v>1615810.962016191</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1185.765555732759</v>
+        <v>1258.768567214236</v>
       </c>
       <c r="AB8" t="n">
-        <v>1622.416745637864</v>
+        <v>1722.302686612384</v>
       </c>
       <c r="AC8" t="n">
-        <v>1467.57556851039</v>
+        <v>1557.9285354691</v>
       </c>
       <c r="AD8" t="n">
-        <v>1185765.555732759</v>
+        <v>1258768.567214236</v>
       </c>
       <c r="AE8" t="n">
-        <v>1622416.745637864</v>
+        <v>1722302.686612384</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340642876511967e-06</v>
+        <v>2.480540321196736e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.33463541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1467575.56851039</v>
+        <v>1557928.5354691</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1129.592184625347</v>
+        <v>1190.570277202289</v>
       </c>
       <c r="AB9" t="n">
-        <v>1545.557861094472</v>
+        <v>1628.990777521827</v>
       </c>
       <c r="AC9" t="n">
-        <v>1398.051988035697</v>
+        <v>1473.522184018058</v>
       </c>
       <c r="AD9" t="n">
-        <v>1129592.184625347</v>
+        <v>1190570.277202289</v>
       </c>
       <c r="AE9" t="n">
-        <v>1545557.861094472</v>
+        <v>1628990.777521827</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370053177097055e-06</v>
+        <v>2.534957077320211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.09212239583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1398051.988035697</v>
+        <v>1473522.184018058</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1119.164460966293</v>
+        <v>1180.142553543234</v>
       </c>
       <c r="AB10" t="n">
-        <v>1531.290189545454</v>
+        <v>1614.723105972808</v>
       </c>
       <c r="AC10" t="n">
-        <v>1385.146003034514</v>
+        <v>1460.616199016875</v>
       </c>
       <c r="AD10" t="n">
-        <v>1119164.460966293</v>
+        <v>1180142.553543234</v>
       </c>
       <c r="AE10" t="n">
-        <v>1531290.189545454</v>
+        <v>1614723.105972808</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.369773078996244e-06</v>
+        <v>2.534438822499988e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1385146.003034514</v>
+        <v>1460616.199016875</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1075.07577143779</v>
+        <v>1148.164034265288</v>
       </c>
       <c r="AB11" t="n">
-        <v>1470.96609947685</v>
+        <v>1570.968685104019</v>
       </c>
       <c r="AC11" t="n">
-        <v>1330.579159456666</v>
+        <v>1421.037638666088</v>
       </c>
       <c r="AD11" t="n">
-        <v>1075075.77143779</v>
+        <v>1148164.034265288</v>
       </c>
       <c r="AE11" t="n">
-        <v>1470966.09947685</v>
+        <v>1570968.685104019</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.383404519902348e-06</v>
+        <v>2.559660557084201e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.98470052083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1330579.159456666</v>
+        <v>1421037.638666088</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1046.335619318571</v>
+        <v>1119.423882146068</v>
       </c>
       <c r="AB12" t="n">
-        <v>1431.642555421309</v>
+        <v>1531.645141048479</v>
       </c>
       <c r="AC12" t="n">
-        <v>1295.008599254845</v>
+        <v>1385.467078464268</v>
       </c>
       <c r="AD12" t="n">
-        <v>1046335.619318571</v>
+        <v>1119423.882146068</v>
       </c>
       <c r="AE12" t="n">
-        <v>1431642.555421309</v>
+        <v>1531645.141048478</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.393207953430711e-06</v>
+        <v>2.577799475792026e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.908203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1295008.599254845</v>
+        <v>1385467.078464268</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1019.053653915487</v>
+        <v>1092.141916742984</v>
       </c>
       <c r="AB13" t="n">
-        <v>1394.314166761441</v>
+        <v>1494.31675238861</v>
       </c>
       <c r="AC13" t="n">
-        <v>1261.242779617952</v>
+        <v>1351.701258827375</v>
       </c>
       <c r="AD13" t="n">
-        <v>1019053.653915487</v>
+        <v>1092141.916742984</v>
       </c>
       <c r="AE13" t="n">
-        <v>1394314.166761441</v>
+        <v>1494316.75238861</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.401050700253401e-06</v>
+        <v>2.592310610758286e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1261242.779617952</v>
+        <v>1351701.258827375</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1005.643744621035</v>
+        <v>1078.732007448532</v>
       </c>
       <c r="AB14" t="n">
-        <v>1375.966137261327</v>
+        <v>1475.968722888497</v>
       </c>
       <c r="AC14" t="n">
-        <v>1244.645860301708</v>
+        <v>1335.104339511131</v>
       </c>
       <c r="AD14" t="n">
-        <v>1005643.744621035</v>
+        <v>1078732.007448532</v>
       </c>
       <c r="AE14" t="n">
-        <v>1375966.137261327</v>
+        <v>1475968.722888497</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.405532269866366e-06</v>
+        <v>2.600602687881863e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.81217447916667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1244645.860301708</v>
+        <v>1335104.339511131</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1010.317855115993</v>
+        <v>1083.406117943491</v>
       </c>
       <c r="AB15" t="n">
-        <v>1382.361461447731</v>
+        <v>1482.3640470749</v>
       </c>
       <c r="AC15" t="n">
-        <v>1250.430823723655</v>
+        <v>1340.889302933078</v>
       </c>
       <c r="AD15" t="n">
-        <v>1010317.855115993</v>
+        <v>1083406.117943491</v>
       </c>
       <c r="AE15" t="n">
-        <v>1382361.461447731</v>
+        <v>1482364.0470749</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.404878707631142e-06</v>
+        <v>2.599393426634674e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.81705729166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1250430.823723655</v>
+        <v>1340889.302933078</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2790.20913229997</v>
+        <v>2919.439284050717</v>
       </c>
       <c r="AB2" t="n">
-        <v>3817.687230152322</v>
+        <v>3994.505625009626</v>
       </c>
       <c r="AC2" t="n">
-        <v>3453.33251906412</v>
+        <v>3613.275614482412</v>
       </c>
       <c r="AD2" t="n">
-        <v>2790209.13229997</v>
+        <v>2919439.284050717</v>
       </c>
       <c r="AE2" t="n">
-        <v>3817687.230152322</v>
+        <v>3994505.625009626</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.900722979483123e-07</v>
+        <v>1.505999733642314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3453332.51906412</v>
+        <v>3613275.614482412</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1523.567902554789</v>
+        <v>1605.91388748381</v>
       </c>
       <c r="AB3" t="n">
-        <v>2084.612819347522</v>
+        <v>2197.282228775869</v>
       </c>
       <c r="AC3" t="n">
-        <v>1885.660297641461</v>
+        <v>1987.576696766476</v>
       </c>
       <c r="AD3" t="n">
-        <v>1523567.902554789</v>
+        <v>1605913.88748381</v>
       </c>
       <c r="AE3" t="n">
-        <v>2084612.819347522</v>
+        <v>2197282.228775869</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135946246475562e-06</v>
+        <v>2.165288859091351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83951822916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1885660.297641461</v>
+        <v>1987576.696766476</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1273.278210302059</v>
+        <v>1343.775231752342</v>
       </c>
       <c r="AB4" t="n">
-        <v>1742.15542040542</v>
+        <v>1838.612555262783</v>
       </c>
       <c r="AC4" t="n">
-        <v>1575.886552212416</v>
+        <v>1663.137953497431</v>
       </c>
       <c r="AD4" t="n">
-        <v>1273278.210302059</v>
+        <v>1343775.231752342</v>
       </c>
       <c r="AE4" t="n">
-        <v>1742155.42040542</v>
+        <v>1838612.555262783</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.264695191850269e-06</v>
+        <v>2.410704219109102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.43001302083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1575886.552212415</v>
+        <v>1663137.953497431</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1149.6193304208</v>
+        <v>1220.201603217103</v>
       </c>
       <c r="AB5" t="n">
-        <v>1572.959885507126</v>
+        <v>1669.533665017138</v>
       </c>
       <c r="AC5" t="n">
-        <v>1422.83880169739</v>
+        <v>1510.195715233117</v>
       </c>
       <c r="AD5" t="n">
-        <v>1149619.3304208</v>
+        <v>1220201.603217103</v>
       </c>
       <c r="AE5" t="n">
-        <v>1572959.885507126</v>
+        <v>1669533.665017138</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.333174563396156e-06</v>
+        <v>2.54123646986123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.7919921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1422838.80169739</v>
+        <v>1510195.715233117</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1084.061853205523</v>
+        <v>1154.473533801233</v>
       </c>
       <c r="AB6" t="n">
-        <v>1483.26125298941</v>
+        <v>1579.601620724575</v>
       </c>
       <c r="AC6" t="n">
-        <v>1341.700880774343</v>
+        <v>1428.846659027419</v>
       </c>
       <c r="AD6" t="n">
-        <v>1084061.853205523</v>
+        <v>1154473.533801233</v>
       </c>
       <c r="AE6" t="n">
-        <v>1483261.25298941</v>
+        <v>1579601.620724575</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.373161107571046e-06</v>
+        <v>2.617456994277845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.44856770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1341700.880774343</v>
+        <v>1428846.65902742</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1030.484532968153</v>
+        <v>1089.30318314029</v>
       </c>
       <c r="AB7" t="n">
-        <v>1409.954399776091</v>
+        <v>1490.432671837316</v>
       </c>
       <c r="AC7" t="n">
-        <v>1275.390330744888</v>
+        <v>1348.187869472555</v>
       </c>
       <c r="AD7" t="n">
-        <v>1030484.532968153</v>
+        <v>1089303.18314029</v>
       </c>
       <c r="AE7" t="n">
-        <v>1409954.399776091</v>
+        <v>1490432.671837316</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.403102722774466e-06</v>
+        <v>2.674530333816858e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.20442708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1275390.330744888</v>
+        <v>1348187.869472555</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1005.161833653423</v>
+        <v>1063.98048382556</v>
       </c>
       <c r="AB8" t="n">
-        <v>1375.306765415029</v>
+        <v>1455.785037476254</v>
       </c>
       <c r="AC8" t="n">
-        <v>1244.049417978986</v>
+        <v>1316.846956706652</v>
       </c>
       <c r="AD8" t="n">
-        <v>1005161.833653423</v>
+        <v>1063980.48382556</v>
       </c>
       <c r="AE8" t="n">
-        <v>1375306.765415029</v>
+        <v>1455785.037476254</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.410829591214059e-06</v>
+        <v>2.689258937568861e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.142578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1244049.417978986</v>
+        <v>1316846.956706652</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>938.3740998795113</v>
+        <v>1008.871031821243</v>
       </c>
       <c r="AB9" t="n">
-        <v>1283.9248415987</v>
+        <v>1380.381853986515</v>
       </c>
       <c r="AC9" t="n">
-        <v>1161.388856716353</v>
+        <v>1248.640147220141</v>
       </c>
       <c r="AD9" t="n">
-        <v>938374.0998795113</v>
+        <v>1008871.031821243</v>
       </c>
       <c r="AE9" t="n">
-        <v>1283924.8415987</v>
+        <v>1380381.853986515</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.437680459041642e-06</v>
+        <v>2.740440835607071e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.93424479166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1161388.856716353</v>
+        <v>1248640.147220141</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>909.5427618388612</v>
+        <v>980.0396937805931</v>
       </c>
       <c r="AB10" t="n">
-        <v>1244.476532942618</v>
+        <v>1340.933545330433</v>
       </c>
       <c r="AC10" t="n">
-        <v>1125.705439272358</v>
+        <v>1212.956729776147</v>
       </c>
       <c r="AD10" t="n">
-        <v>909542.7618388613</v>
+        <v>980039.6937805931</v>
       </c>
       <c r="AE10" t="n">
-        <v>1244476.532942618</v>
+        <v>1340933.545330433</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.447918559724101e-06</v>
+        <v>2.759956235578475e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.85774739583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1125705.439272358</v>
+        <v>1212956.729776147</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>910.9320518425234</v>
+        <v>981.4289837842551</v>
       </c>
       <c r="AB11" t="n">
-        <v>1246.377420816778</v>
+        <v>1342.834433204592</v>
       </c>
       <c r="AC11" t="n">
-        <v>1127.424909075721</v>
+        <v>1214.676199579509</v>
       </c>
       <c r="AD11" t="n">
-        <v>910932.0518425234</v>
+        <v>981428.9837842551</v>
       </c>
       <c r="AE11" t="n">
-        <v>1246377.420816778</v>
+        <v>1342834.433204592</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.449367347556525e-06</v>
+        <v>2.762717848781976e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1127424.909075721</v>
+        <v>1214676.199579509</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.320887213791</v>
+        <v>1168.857745434175</v>
       </c>
       <c r="AB2" t="n">
-        <v>1484.983918864183</v>
+        <v>1599.282733667396</v>
       </c>
       <c r="AC2" t="n">
-        <v>1343.259137835805</v>
+        <v>1446.649434173593</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085320.887213791</v>
+        <v>1168857.745434175</v>
       </c>
       <c r="AE2" t="n">
-        <v>1484983.918864183</v>
+        <v>1599282.733667396</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.259359572513147e-06</v>
+        <v>2.682106311357576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.92903645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1343259.137835805</v>
+        <v>1446649.434173593</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>767.9446821638156</v>
+        <v>830.7253371109607</v>
       </c>
       <c r="AB3" t="n">
-        <v>1050.735793464827</v>
+        <v>1136.635055250533</v>
       </c>
       <c r="AC3" t="n">
-        <v>950.4550440534915</v>
+        <v>1028.156200854741</v>
       </c>
       <c r="AD3" t="n">
-        <v>767944.6821638156</v>
+        <v>830725.3371109607</v>
       </c>
       <c r="AE3" t="n">
-        <v>1050735.793464827</v>
+        <v>1136635.055250533</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.503148306190916e-06</v>
+        <v>3.20131251386428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.669921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>950455.0440534916</v>
+        <v>1028156.200854741</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>693.3923435290302</v>
+        <v>745.7096454935355</v>
       </c>
       <c r="AB4" t="n">
-        <v>948.7299947276605</v>
+        <v>1020.312835351964</v>
       </c>
       <c r="AC4" t="n">
-        <v>858.1845355817624</v>
+        <v>922.9356103640299</v>
       </c>
       <c r="AD4" t="n">
-        <v>693392.3435290302</v>
+        <v>745709.6454935356</v>
       </c>
       <c r="AE4" t="n">
-        <v>948729.9947276604</v>
+        <v>1020312.835351964</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.56382605024953e-06</v>
+        <v>3.330540229165462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.21744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>858184.5355817623</v>
+        <v>922935.6103640299</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.4086216705235</v>
+        <v>750.7259236350288</v>
       </c>
       <c r="AB5" t="n">
-        <v>955.5934877834245</v>
+        <v>1027.176328407728</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.3929864932572</v>
+        <v>929.1440612755248</v>
       </c>
       <c r="AD5" t="n">
-        <v>698408.6216705235</v>
+        <v>750725.9236350289</v>
       </c>
       <c r="AE5" t="n">
-        <v>955593.4877834246</v>
+        <v>1027176.328407728</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56382605024953e-06</v>
+        <v>3.330540229165462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.21744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>864392.9864932572</v>
+        <v>929144.0612755248</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1551.594838530989</v>
+        <v>1639.369206900592</v>
       </c>
       <c r="AB2" t="n">
-        <v>2122.960509611309</v>
+        <v>2243.057272746436</v>
       </c>
       <c r="AC2" t="n">
-        <v>1920.348138167794</v>
+        <v>2028.98303478617</v>
       </c>
       <c r="AD2" t="n">
-        <v>1551594.838530989</v>
+        <v>1639369.206900592</v>
       </c>
       <c r="AE2" t="n">
-        <v>2122960.509611309</v>
+        <v>2243057.272746436</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.070752015539338e-06</v>
+        <v>2.17399678441905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.673828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1920348.138167794</v>
+        <v>2028983.034786171</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1023.830619484601</v>
+        <v>1089.576144415783</v>
       </c>
       <c r="AB3" t="n">
-        <v>1400.850221797951</v>
+        <v>1490.806149496647</v>
       </c>
       <c r="AC3" t="n">
-        <v>1267.155042735188</v>
+        <v>1348.525702948258</v>
       </c>
       <c r="AD3" t="n">
-        <v>1023830.619484601</v>
+        <v>1089576.144415783</v>
       </c>
       <c r="AE3" t="n">
-        <v>1400850.221797951</v>
+        <v>1490806.149496647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.356560834708817e-06</v>
+        <v>2.754287500491233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.37141927083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1267155.042735188</v>
+        <v>1348525.702948258</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>878.1377213295968</v>
+        <v>943.968497606799</v>
       </c>
       <c r="AB4" t="n">
-        <v>1201.506771025239</v>
+        <v>1291.579343376584</v>
       </c>
       <c r="AC4" t="n">
-        <v>1086.836651123933</v>
+        <v>1168.312823587716</v>
       </c>
       <c r="AD4" t="n">
-        <v>878137.7213295968</v>
+        <v>943968.497606799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1201506.771025239</v>
+        <v>1291579.343376584</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.458738518618252e-06</v>
+        <v>2.961743524887889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.50390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1086836.651123933</v>
+        <v>1168312.823587716</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>797.4341669444009</v>
+        <v>852.2932366839538</v>
       </c>
       <c r="AB5" t="n">
-        <v>1091.084607525874</v>
+        <v>1166.145206954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>986.9530239304681</v>
+        <v>1054.84994509818</v>
       </c>
       <c r="AD5" t="n">
-        <v>797434.1669444009</v>
+        <v>852293.2366839538</v>
       </c>
       <c r="AE5" t="n">
-        <v>1091084.607525874</v>
+        <v>1166145.206954877</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.513075188063532e-06</v>
+        <v>3.072065749768856e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.09049479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>986953.0239304681</v>
+        <v>1054849.94509818</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>775.6389179247971</v>
+        <v>830.4979876643499</v>
       </c>
       <c r="AB6" t="n">
-        <v>1061.263386278727</v>
+        <v>1136.32398570773</v>
       </c>
       <c r="AC6" t="n">
-        <v>959.9778981848023</v>
+        <v>1027.874819352514</v>
       </c>
       <c r="AD6" t="n">
-        <v>775638.917924797</v>
+        <v>830497.98766435</v>
       </c>
       <c r="AE6" t="n">
-        <v>1061263.386278727</v>
+        <v>1136323.98570773</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524210596602603e-06</v>
+        <v>3.094674478966472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.00911458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>959977.8981848023</v>
+        <v>1027874.819352514</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>799.9576215433361</v>
+        <v>870.1976987677189</v>
       </c>
       <c r="AB2" t="n">
-        <v>1094.537309435097</v>
+        <v>1190.642881867004</v>
       </c>
       <c r="AC2" t="n">
-        <v>990.0762048153721</v>
+        <v>1077.009596299396</v>
       </c>
       <c r="AD2" t="n">
-        <v>799957.6215433361</v>
+        <v>870197.6987677189</v>
       </c>
       <c r="AE2" t="n">
-        <v>1094537.309435097</v>
+        <v>1190642.881867004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.42189987591616e-06</v>
+        <v>3.166293292435482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>990076.2048153721</v>
+        <v>1077009.596299396</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>632.7214059439476</v>
+        <v>693.0003357259085</v>
       </c>
       <c r="AB3" t="n">
-        <v>865.7173413108901</v>
+        <v>948.1936323572655</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.0944932980979</v>
+        <v>857.6993628832088</v>
       </c>
       <c r="AD3" t="n">
-        <v>632721.4059439476</v>
+        <v>693000.3357259085</v>
       </c>
       <c r="AE3" t="n">
-        <v>865717.3413108902</v>
+        <v>948193.6323572656</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583420896222152e-06</v>
+        <v>3.525969055718518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.50553385416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>783094.4932980979</v>
+        <v>857699.3628832088</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3068.163647457917</v>
+        <v>3198.727840206855</v>
       </c>
       <c r="AB2" t="n">
-        <v>4197.996860279211</v>
+        <v>4376.640548883977</v>
       </c>
       <c r="AC2" t="n">
-        <v>3797.345931859604</v>
+        <v>3958.940117551915</v>
       </c>
       <c r="AD2" t="n">
-        <v>3068163.647457917</v>
+        <v>3198727.840206855</v>
       </c>
       <c r="AE2" t="n">
-        <v>4197996.860279212</v>
+        <v>4376640.548883977</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.504309364103022e-07</v>
+        <v>1.418887550375207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.76009114583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3797345.931859604</v>
+        <v>3958940.117551915</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1622.719782733451</v>
+        <v>1705.775143680573</v>
       </c>
       <c r="AB3" t="n">
-        <v>2220.276796080199</v>
+        <v>2333.916805071975</v>
       </c>
       <c r="AC3" t="n">
-        <v>2008.37669484036</v>
+        <v>2111.171060868714</v>
       </c>
       <c r="AD3" t="n">
-        <v>1622719.782733451</v>
+        <v>1705775.143680573</v>
       </c>
       <c r="AE3" t="n">
-        <v>2220276.7960802</v>
+        <v>2333916.805071975</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.104588393644756e-06</v>
+        <v>2.088515603485955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.10481770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2008376.69484036</v>
+        <v>2111171.060868714</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1337.348602903998</v>
+        <v>1420.403874342569</v>
       </c>
       <c r="AB4" t="n">
-        <v>1829.819358149623</v>
+        <v>1943.45924467185</v>
       </c>
       <c r="AC4" t="n">
-        <v>1655.183966775421</v>
+        <v>1757.978222022549</v>
       </c>
       <c r="AD4" t="n">
-        <v>1337348.602903998</v>
+        <v>1420403.874342569</v>
       </c>
       <c r="AE4" t="n">
-        <v>1829819.358149623</v>
+        <v>1943459.24467185</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.237253862760149e-06</v>
+        <v>2.339354652570144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5927734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1655183.966775421</v>
+        <v>1757978.222022549</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1208.162393258636</v>
+        <v>1291.132323842636</v>
       </c>
       <c r="AB5" t="n">
-        <v>1653.061086819506</v>
+        <v>1766.584206219535</v>
       </c>
       <c r="AC5" t="n">
-        <v>1495.295256779258</v>
+        <v>1597.983888994448</v>
       </c>
       <c r="AD5" t="n">
-        <v>1208162.393258636</v>
+        <v>1291132.323842636</v>
       </c>
       <c r="AE5" t="n">
-        <v>1653061.086819506</v>
+        <v>1766584.206219535</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.306266707805025e-06</v>
+        <v>2.469841632649293e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1495295.256779258</v>
+        <v>1597983.888994448</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1135.174000035476</v>
+        <v>1206.437382001027</v>
       </c>
       <c r="AB6" t="n">
-        <v>1553.195147190927</v>
+        <v>1650.70085031472</v>
       </c>
       <c r="AC6" t="n">
-        <v>1404.960382266104</v>
+        <v>1493.160277933876</v>
       </c>
       <c r="AD6" t="n">
-        <v>1135174.000035476</v>
+        <v>1206437.382001027</v>
       </c>
       <c r="AE6" t="n">
-        <v>1553195.147190927</v>
+        <v>1650700.85031472</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.349914221453379e-06</v>
+        <v>2.55236876568132e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.54134114583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1404960.382266104</v>
+        <v>1493160.277933876</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1081.855242490296</v>
+        <v>1152.948032255255</v>
       </c>
       <c r="AB7" t="n">
-        <v>1480.242070860043</v>
+        <v>1577.514362208989</v>
       </c>
       <c r="AC7" t="n">
-        <v>1338.969845149955</v>
+        <v>1426.958605535076</v>
       </c>
       <c r="AD7" t="n">
-        <v>1081855.242490296</v>
+        <v>1152948.032255255</v>
       </c>
       <c r="AE7" t="n">
-        <v>1480242.070860043</v>
+        <v>1577514.362208989</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37968259150741e-06</v>
+        <v>2.608653718253602e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.29069010416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1338969.845149955</v>
+        <v>1426958.605535076</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1024.892298518637</v>
+        <v>1084.278539665147</v>
       </c>
       <c r="AB8" t="n">
-        <v>1402.302857890291</v>
+        <v>1483.557732963</v>
       </c>
       <c r="AC8" t="n">
-        <v>1268.469041277663</v>
+        <v>1341.969065115366</v>
       </c>
       <c r="AD8" t="n">
-        <v>1024892.298518636</v>
+        <v>1084278.539665147</v>
       </c>
       <c r="AE8" t="n">
-        <v>1402302.857890291</v>
+        <v>1483557.732963</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.411556762658511e-06</v>
+        <v>2.668920243033569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.03678385416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1268469.041277663</v>
+        <v>1341969.065115366</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1003.82699755451</v>
+        <v>1063.21323870102</v>
       </c>
       <c r="AB9" t="n">
-        <v>1373.480383775683</v>
+        <v>1454.735258848393</v>
       </c>
       <c r="AC9" t="n">
-        <v>1242.397343639957</v>
+        <v>1315.89736747766</v>
       </c>
       <c r="AD9" t="n">
-        <v>1003826.99755451</v>
+        <v>1063213.23870102</v>
       </c>
       <c r="AE9" t="n">
-        <v>1373480.383775683</v>
+        <v>1454735.258848393</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.414906900767486e-06</v>
+        <v>2.675254562454887e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0107421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1242397.343639957</v>
+        <v>1315897.36747766</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>955.7705746439262</v>
+        <v>1026.948615754906</v>
       </c>
       <c r="AB10" t="n">
-        <v>1307.727465849673</v>
+        <v>1405.116401851268</v>
       </c>
       <c r="AC10" t="n">
-        <v>1182.919791916006</v>
+        <v>1271.014064551838</v>
       </c>
       <c r="AD10" t="n">
-        <v>955770.5746439262</v>
+        <v>1026948.615754906</v>
       </c>
       <c r="AE10" t="n">
-        <v>1307727.465849673</v>
+        <v>1405116.401851268</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.429743226678659e-06</v>
+        <v>2.70330654846358e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.89680989583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1182919.791916006</v>
+        <v>1271014.064551838</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>932.2284926946643</v>
+        <v>1003.406533805644</v>
       </c>
       <c r="AB11" t="n">
-        <v>1275.516150723339</v>
+        <v>1372.905086724933</v>
       </c>
       <c r="AC11" t="n">
-        <v>1153.782679496464</v>
+        <v>1241.876952132296</v>
       </c>
       <c r="AD11" t="n">
-        <v>932228.4926946643</v>
+        <v>1003406.533805644</v>
       </c>
       <c r="AE11" t="n">
-        <v>1275516.150723339</v>
+        <v>1372905.086724933</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.437496403445143e-06</v>
+        <v>2.717965973410059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.83658854166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1153782.679496464</v>
+        <v>1241876.952132296</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>935.995628864939</v>
+        <v>1007.173669975918</v>
       </c>
       <c r="AB12" t="n">
-        <v>1280.670512625827</v>
+        <v>1378.059448627422</v>
       </c>
       <c r="AC12" t="n">
-        <v>1158.445116333171</v>
+        <v>1246.539388969004</v>
       </c>
       <c r="AD12" t="n">
-        <v>935995.628864939</v>
+        <v>1007173.669975918</v>
       </c>
       <c r="AE12" t="n">
-        <v>1280670.512625827</v>
+        <v>1378059.448627422</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.436252066433238e-06</v>
+        <v>2.715613226196426e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.84798177083333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1158445.116333171</v>
+        <v>1246539.388969004</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.2345761873337</v>
+        <v>714.9468587501059</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.8890981657514</v>
+        <v>978.2218333712356</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.1958228320756</v>
+        <v>884.86171453725</v>
       </c>
       <c r="AD2" t="n">
-        <v>656234.5761873337</v>
+        <v>714946.8587501058</v>
       </c>
       <c r="AE2" t="n">
-        <v>897889.0981657514</v>
+        <v>978221.8333712355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526626540011021e-06</v>
+        <v>3.499893242524955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>812195.8228320755</v>
+        <v>884861.71453725</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.5644639138694</v>
+        <v>659.3619978226621</v>
       </c>
       <c r="AB3" t="n">
-        <v>821.7187945611792</v>
+        <v>902.1681744193125</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.2951060978311</v>
+        <v>816.0665100537179</v>
       </c>
       <c r="AD3" t="n">
-        <v>600564.4639138695</v>
+        <v>659361.9978226621</v>
       </c>
       <c r="AE3" t="n">
-        <v>821718.7945611791</v>
+        <v>902168.1744193125</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584933203841261e-06</v>
+        <v>3.633565161219724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.76432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>743295.106097831</v>
+        <v>816066.5100537179</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2104.014945032209</v>
+        <v>2206.572561032125</v>
       </c>
       <c r="AB2" t="n">
-        <v>2878.806070381353</v>
+        <v>3019.129925115304</v>
       </c>
       <c r="AC2" t="n">
-        <v>2604.056859453853</v>
+        <v>2730.988402437649</v>
       </c>
       <c r="AD2" t="n">
-        <v>2104014.945032209</v>
+        <v>2206572.561032125</v>
       </c>
       <c r="AE2" t="n">
-        <v>2878806.070381353</v>
+        <v>3019129.925115304</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.187073435522514e-07</v>
+        <v>1.800653696887393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2604056.859453853</v>
+        <v>2730988.402437649</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1272.482187432933</v>
+        <v>1340.854020941426</v>
       </c>
       <c r="AB3" t="n">
-        <v>1741.066266797831</v>
+        <v>1834.615625756562</v>
       </c>
       <c r="AC3" t="n">
-        <v>1574.901345896498</v>
+        <v>1659.522485333558</v>
       </c>
       <c r="AD3" t="n">
-        <v>1272482.187432933</v>
+        <v>1340854.020941426</v>
       </c>
       <c r="AE3" t="n">
-        <v>1741066.266797831</v>
+        <v>1834615.625756562</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.238642797356464e-06</v>
+        <v>2.427722764856735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.076171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1574901.345896498</v>
+        <v>1659522.485333558</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1073.245220890186</v>
+        <v>1152.841573847642</v>
       </c>
       <c r="AB4" t="n">
-        <v>1468.461459459428</v>
+        <v>1577.368701119079</v>
       </c>
       <c r="AC4" t="n">
-        <v>1328.313558767222</v>
+        <v>1426.82684613515</v>
       </c>
       <c r="AD4" t="n">
-        <v>1073245.220890186</v>
+        <v>1152841.573847642</v>
       </c>
       <c r="AE4" t="n">
-        <v>1468461.459459428</v>
+        <v>1577368.701119079</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.353481215300495e-06</v>
+        <v>2.65280447696766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1328313.558767222</v>
+        <v>1426826.84613515</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>982.5467449454701</v>
+        <v>1050.74789674482</v>
       </c>
       <c r="AB5" t="n">
-        <v>1344.363803337509</v>
+        <v>1437.679628051844</v>
       </c>
       <c r="AC5" t="n">
-        <v>1216.059608773425</v>
+        <v>1300.469502146607</v>
       </c>
       <c r="AD5" t="n">
-        <v>982546.7449454701</v>
+        <v>1050747.89674482</v>
       </c>
       <c r="AE5" t="n">
-        <v>1344363.803337509</v>
+        <v>1437679.628051844</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.413686798364741e-06</v>
+        <v>2.770806587736385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.45670572916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1216059.608773425</v>
+        <v>1300469.502146607</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>919.384387916337</v>
+        <v>976.3609307581731</v>
       </c>
       <c r="AB6" t="n">
-        <v>1257.94227992372</v>
+        <v>1335.900099467587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1137.886034260878</v>
+        <v>1208.403668921965</v>
       </c>
       <c r="AD6" t="n">
-        <v>919384.387916337</v>
+        <v>976360.9307581731</v>
       </c>
       <c r="AE6" t="n">
-        <v>1257942.27992372</v>
+        <v>1335900.099467587</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.452098955493333e-06</v>
+        <v>2.846093884854944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.15397135416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1137886.034260878</v>
+        <v>1208403.668921965</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>878.0013634337015</v>
+        <v>934.9779062755374</v>
       </c>
       <c r="AB7" t="n">
-        <v>1201.320200136389</v>
+        <v>1279.278019680256</v>
       </c>
       <c r="AC7" t="n">
-        <v>1086.667886298861</v>
+        <v>1157.185520959949</v>
       </c>
       <c r="AD7" t="n">
-        <v>878001.3634337015</v>
+        <v>934977.9062755374</v>
       </c>
       <c r="AE7" t="n">
-        <v>1201320.200136389</v>
+        <v>1279278.019680256</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.468021093163216e-06</v>
+        <v>2.87730105464502e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.03352864583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1086667.886298861</v>
+        <v>1157185.520959949</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>835.5773738650058</v>
+        <v>903.8637770103761</v>
       </c>
       <c r="AB8" t="n">
-        <v>1143.273825994171</v>
+        <v>1236.706295361156</v>
       </c>
       <c r="AC8" t="n">
-        <v>1034.16137663618</v>
+        <v>1118.676782260074</v>
       </c>
       <c r="AD8" t="n">
-        <v>835577.3738650058</v>
+        <v>903863.7770103761</v>
       </c>
       <c r="AE8" t="n">
-        <v>1143273.825994171</v>
+        <v>1236706.295361156</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.486132524762708e-06</v>
+        <v>2.912799210281232e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1034161.37663618</v>
+        <v>1118676.782260074</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>840.0433308309242</v>
+        <v>908.3297339762945</v>
       </c>
       <c r="AB9" t="n">
-        <v>1149.384345339057</v>
+        <v>1242.816814706042</v>
       </c>
       <c r="AC9" t="n">
-        <v>1039.688716590957</v>
+        <v>1124.204122214851</v>
       </c>
       <c r="AD9" t="n">
-        <v>840043.3308309242</v>
+        <v>908329.7339762945</v>
       </c>
       <c r="AE9" t="n">
-        <v>1149384.345339057</v>
+        <v>1242816.814706042</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.486033011402272e-06</v>
+        <v>2.912604165470044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.90006510416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1039688.716590957</v>
+        <v>1124204.122214851</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2551.601444279911</v>
+        <v>2656.414429182504</v>
       </c>
       <c r="AB2" t="n">
-        <v>3491.213664774995</v>
+        <v>3634.623414741277</v>
       </c>
       <c r="AC2" t="n">
-        <v>3158.017132557891</v>
+        <v>3287.740057264233</v>
       </c>
       <c r="AD2" t="n">
-        <v>2551601.444279911</v>
+        <v>2656414.429182504</v>
       </c>
       <c r="AE2" t="n">
-        <v>3491213.664774995</v>
+        <v>3634623.414741276</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.307278369972597e-07</v>
+        <v>1.597242971864689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.10319010416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3158017.132557891</v>
+        <v>3287740.057264233</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1437.163003533133</v>
+        <v>1518.684144395165</v>
       </c>
       <c r="AB3" t="n">
-        <v>1966.389824590978</v>
+        <v>2077.93064597732</v>
       </c>
       <c r="AC3" t="n">
-        <v>1778.720339577467</v>
+        <v>1879.615861519222</v>
       </c>
       <c r="AD3" t="n">
-        <v>1437163.003533133</v>
+        <v>1518684.144395165</v>
       </c>
       <c r="AE3" t="n">
-        <v>1966389.824590978</v>
+        <v>2077930.64597732</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169161677633115e-06</v>
+        <v>2.247950760050409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.57259114583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1778720.339577467</v>
+        <v>1879615.861519222</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1209.155061104407</v>
+        <v>1278.945073354415</v>
       </c>
       <c r="AB4" t="n">
-        <v>1654.419298759505</v>
+        <v>1749.909072438006</v>
       </c>
       <c r="AC4" t="n">
-        <v>1496.523842877966</v>
+        <v>1582.90020657733</v>
       </c>
       <c r="AD4" t="n">
-        <v>1209155.061104408</v>
+        <v>1278945.073354415</v>
       </c>
       <c r="AE4" t="n">
-        <v>1654419.298759505</v>
+        <v>1749909.072438006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.293380840113691e-06</v>
+        <v>2.486787326500599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.2705078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1496523.842877966</v>
+        <v>1582900.20657733</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1096.393464800999</v>
+        <v>1166.268728397027</v>
       </c>
       <c r="AB5" t="n">
-        <v>1500.133908006649</v>
+        <v>1595.740326337799</v>
       </c>
       <c r="AC5" t="n">
-        <v>1356.963233277658</v>
+        <v>1443.445109227733</v>
       </c>
       <c r="AD5" t="n">
-        <v>1096393.464800999</v>
+        <v>1166268.728397027</v>
       </c>
       <c r="AE5" t="n">
-        <v>1500133.908006649</v>
+        <v>1595740.326337799</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.357732996500803e-06</v>
+        <v>2.610517415870399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.689453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1356963.233277658</v>
+        <v>1443445.109227733</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1029.078801363222</v>
+        <v>1098.783472758657</v>
       </c>
       <c r="AB6" t="n">
-        <v>1408.031015777723</v>
+        <v>1503.404022334026</v>
       </c>
       <c r="AC6" t="n">
-        <v>1273.650511815839</v>
+        <v>1359.921252483263</v>
       </c>
       <c r="AD6" t="n">
-        <v>1029078.801363222</v>
+        <v>1098783.472758657</v>
       </c>
       <c r="AE6" t="n">
-        <v>1408031.015777723</v>
+        <v>1503404.022334026</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.398976878548906e-06</v>
+        <v>2.689817154966497e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.34440104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1273650.511815839</v>
+        <v>1359921.252483263</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>975.2820736783648</v>
+        <v>1033.511549516939</v>
       </c>
       <c r="AB7" t="n">
-        <v>1334.423959615178</v>
+        <v>1414.096097360685</v>
       </c>
       <c r="AC7" t="n">
-        <v>1207.068409785295</v>
+        <v>1279.136750524919</v>
       </c>
       <c r="AD7" t="n">
-        <v>975282.0736783647</v>
+        <v>1033511.549516939</v>
       </c>
       <c r="AE7" t="n">
-        <v>1334423.959615178</v>
+        <v>1414096.097360685</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.428227858724866e-06</v>
+        <v>2.746058104680043e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11165364583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1207068.409785295</v>
+        <v>1279136.750524919</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>928.5492623018209</v>
+        <v>998.3391850432769</v>
       </c>
       <c r="AB8" t="n">
-        <v>1270.482065383661</v>
+        <v>1365.971716592613</v>
       </c>
       <c r="AC8" t="n">
-        <v>1149.229040196222</v>
+        <v>1235.605293114359</v>
       </c>
       <c r="AD8" t="n">
-        <v>928549.2623018209</v>
+        <v>998339.1850432769</v>
       </c>
       <c r="AE8" t="n">
-        <v>1270482.065383661</v>
+        <v>1365971.716592613</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.442950852080099e-06</v>
+        <v>2.774366049369194e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.99772135416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1149229.040196222</v>
+        <v>1235605.293114359</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>889.8962050216866</v>
+        <v>959.6861277631426</v>
       </c>
       <c r="AB9" t="n">
-        <v>1217.595247160445</v>
+        <v>1313.084898369397</v>
       </c>
       <c r="AC9" t="n">
-        <v>1101.389665677114</v>
+        <v>1187.765918595251</v>
       </c>
       <c r="AD9" t="n">
-        <v>889896.2050216866</v>
+        <v>959686.1277631426</v>
       </c>
       <c r="AE9" t="n">
-        <v>1217595.247160445</v>
+        <v>1313084.898369397</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.458843884642371e-06</v>
+        <v>2.804923632046887e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.87890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1101389.665677114</v>
+        <v>1187765.918595251</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>887.1163300392544</v>
+        <v>956.9062527807102</v>
       </c>
       <c r="AB10" t="n">
-        <v>1213.791699570052</v>
+        <v>1309.281350779005</v>
       </c>
       <c r="AC10" t="n">
-        <v>1097.949123330435</v>
+        <v>1184.325376248573</v>
       </c>
       <c r="AD10" t="n">
-        <v>887116.3300392544</v>
+        <v>956906.2527807102</v>
       </c>
       <c r="AE10" t="n">
-        <v>1213791.699570052</v>
+        <v>1309281.350779005</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.459623910780397e-06</v>
+        <v>2.806423390705915e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1097949.123330435</v>
+        <v>1184325.376248573</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3692.012939793968</v>
+        <v>3837.041864211832</v>
       </c>
       <c r="AB2" t="n">
-        <v>5051.574984341798</v>
+        <v>5250.00995695491</v>
       </c>
       <c r="AC2" t="n">
-        <v>4569.459757766045</v>
+        <v>4748.95637509819</v>
       </c>
       <c r="AD2" t="n">
-        <v>3692012.939793968</v>
+        <v>3837041.864211832</v>
       </c>
       <c r="AE2" t="n">
-        <v>5051574.984341798</v>
+        <v>5250009.95695491</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776093161813859e-07</v>
+        <v>1.262334761802261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.60579427083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4569459.757766046</v>
+        <v>4748956.375098189</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1805.854981343787</v>
+        <v>1902.512484004172</v>
       </c>
       <c r="AB3" t="n">
-        <v>2470.850454173612</v>
+        <v>2603.101513541614</v>
       </c>
       <c r="AC3" t="n">
-        <v>2235.035954687675</v>
+        <v>2354.665158565122</v>
       </c>
       <c r="AD3" t="n">
-        <v>1805854.981343787</v>
+        <v>1902512.484004172</v>
       </c>
       <c r="AE3" t="n">
-        <v>2470850.454173612</v>
+        <v>2603101.513541614</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045212370209788e-06</v>
+        <v>1.947151370079987e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.65494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2235035.954687675</v>
+        <v>2354665.158565122</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1468.370112049043</v>
+        <v>1552.934759270059</v>
       </c>
       <c r="AB4" t="n">
-        <v>2009.088767222908</v>
+        <v>2124.793848279634</v>
       </c>
       <c r="AC4" t="n">
-        <v>1817.344155052948</v>
+        <v>1922.006505566721</v>
       </c>
       <c r="AD4" t="n">
-        <v>1468370.112049043</v>
+        <v>1552934.759270058</v>
       </c>
       <c r="AE4" t="n">
-        <v>2009088.767222908</v>
+        <v>2124793.848279634</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.184404617242047e-06</v>
+        <v>2.206455969066868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.93294270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1817344.155052948</v>
+        <v>1922006.505566722</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1333.114879873152</v>
+        <v>1405.586761163348</v>
       </c>
       <c r="AB5" t="n">
-        <v>1824.026591520142</v>
+        <v>1923.185816735143</v>
       </c>
       <c r="AC5" t="n">
-        <v>1649.944053662859</v>
+        <v>1739.639661594186</v>
       </c>
       <c r="AD5" t="n">
-        <v>1333114.879873152</v>
+        <v>1405586.761163349</v>
       </c>
       <c r="AE5" t="n">
-        <v>1824026.591520142</v>
+        <v>1923185.816735143</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257906405566723e-06</v>
+        <v>2.343384225867919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.177734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1649944.053662859</v>
+        <v>1739639.661594186</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1238.549346015012</v>
+        <v>1311.106478651229</v>
       </c>
       <c r="AB6" t="n">
-        <v>1694.637856158522</v>
+        <v>1793.913726026172</v>
       </c>
       <c r="AC6" t="n">
-        <v>1532.903997605921</v>
+        <v>1622.705117787961</v>
       </c>
       <c r="AD6" t="n">
-        <v>1238549.346015012</v>
+        <v>1311106.478651229</v>
       </c>
       <c r="AE6" t="n">
-        <v>1694637.856158522</v>
+        <v>1793913.726026172</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30533905769942e-06</v>
+        <v>2.431747659194077e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.73502604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1532903.997605921</v>
+        <v>1622705.117787961</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1182.442882447983</v>
+        <v>1254.829422883609</v>
       </c>
       <c r="AB7" t="n">
-        <v>1617.870517463635</v>
+        <v>1716.912975556437</v>
       </c>
       <c r="AC7" t="n">
-        <v>1463.463225972438</v>
+        <v>1553.053210871826</v>
       </c>
       <c r="AD7" t="n">
-        <v>1182442.882447984</v>
+        <v>1254829.422883609</v>
       </c>
       <c r="AE7" t="n">
-        <v>1617870.517463635</v>
+        <v>1716912.975556437</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335925589332607e-06</v>
+        <v>2.488728047747651e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.46647135416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1463463.225972438</v>
+        <v>1553053.210871826</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1136.714243834993</v>
+        <v>1209.100784270619</v>
       </c>
       <c r="AB8" t="n">
-        <v>1555.302576708187</v>
+        <v>1654.34503480099</v>
       </c>
       <c r="AC8" t="n">
-        <v>1406.866681668034</v>
+        <v>1496.456666567422</v>
       </c>
       <c r="AD8" t="n">
-        <v>1136714.243834993</v>
+        <v>1209100.784270619</v>
       </c>
       <c r="AE8" t="n">
-        <v>1555302.576708187</v>
+        <v>1654345.03480099</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359830140209006e-06</v>
+        <v>2.533260412955676e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.2646484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1406866.681668034</v>
+        <v>1496456.666567422</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1111.627851092123</v>
+        <v>1172.092217797522</v>
       </c>
       <c r="AB9" t="n">
-        <v>1520.978267423854</v>
+        <v>1603.708281449777</v>
       </c>
       <c r="AC9" t="n">
-        <v>1375.818236287326</v>
+        <v>1450.65261388692</v>
       </c>
       <c r="AD9" t="n">
-        <v>1111627.851092123</v>
+        <v>1172092.217797522</v>
       </c>
       <c r="AE9" t="n">
-        <v>1520978.267423854</v>
+        <v>1603708.281449777</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370558954381878e-06</v>
+        <v>2.553247380017544e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.1767578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1375818.236287327</v>
+        <v>1450652.61388692</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1071.406936789759</v>
+        <v>1131.871303495158</v>
       </c>
       <c r="AB10" t="n">
-        <v>1465.946238053853</v>
+        <v>1548.676252079776</v>
       </c>
       <c r="AC10" t="n">
-        <v>1326.03838656246</v>
+        <v>1400.872764162053</v>
       </c>
       <c r="AD10" t="n">
-        <v>1071406.936789759</v>
+        <v>1131871.303495158</v>
       </c>
       <c r="AE10" t="n">
-        <v>1465946.238053853</v>
+        <v>1548676.252079776</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.389099098171841e-06</v>
+        <v>2.587786261694634e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.02701822916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1326038.38656246</v>
+        <v>1400872.764162053</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1023.37006853959</v>
+        <v>1095.841860321236</v>
       </c>
       <c r="AB11" t="n">
-        <v>1400.220075676913</v>
+        <v>1499.379178422365</v>
       </c>
       <c r="AC11" t="n">
-        <v>1266.585036875527</v>
+        <v>1356.280534025628</v>
       </c>
       <c r="AD11" t="n">
-        <v>1023370.06853959</v>
+        <v>1095841.860321236</v>
       </c>
       <c r="AE11" t="n">
-        <v>1400220.075676913</v>
+        <v>1499379.178422365</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.402368947280393e-06</v>
+        <v>2.612506984113262e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.9228515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1266585.036875527</v>
+        <v>1356280.534025627</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>995.6783789139256</v>
+        <v>1068.150170695571</v>
       </c>
       <c r="AB12" t="n">
-        <v>1362.331084259953</v>
+        <v>1461.490187005405</v>
       </c>
       <c r="AC12" t="n">
-        <v>1232.312117621868</v>
+        <v>1322.007614771969</v>
       </c>
       <c r="AD12" t="n">
-        <v>995678.3789139256</v>
+        <v>1068150.170695571</v>
       </c>
       <c r="AE12" t="n">
-        <v>1362331.084259953</v>
+        <v>1461490.187005405</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.411497850567837e-06</v>
+        <v>2.629513438543098e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.85123697916667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1232312.117621868</v>
+        <v>1322007.614771969</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>980.6773297439543</v>
+        <v>1053.1491215256</v>
       </c>
       <c r="AB13" t="n">
-        <v>1341.805986986017</v>
+        <v>1440.965089731468</v>
       </c>
       <c r="AC13" t="n">
-        <v>1213.745906824601</v>
+        <v>1303.441403974702</v>
       </c>
       <c r="AD13" t="n">
-        <v>980677.3297439542</v>
+        <v>1053149.1215256</v>
       </c>
       <c r="AE13" t="n">
-        <v>1341805.986986017</v>
+        <v>1440965.089731468</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.416015246009046e-06</v>
+        <v>2.637929003621779e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.81705729166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1213745.906824601</v>
+        <v>1303441.403974702</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>983.8022487226176</v>
+        <v>1056.274040504263</v>
       </c>
       <c r="AB14" t="n">
-        <v>1346.081638994319</v>
+        <v>1445.240741739771</v>
       </c>
       <c r="AC14" t="n">
-        <v>1217.613496606147</v>
+        <v>1307.308993756247</v>
       </c>
       <c r="AD14" t="n">
-        <v>983802.2487226176</v>
+        <v>1056274.040504263</v>
       </c>
       <c r="AE14" t="n">
-        <v>1346081.638994319</v>
+        <v>1445240.741739771</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.415638796388945e-06</v>
+        <v>2.63722770653189e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1217613.496606147</v>
+        <v>1307308.993756247</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1728.260903676276</v>
+        <v>1817.139520243127</v>
       </c>
       <c r="AB2" t="n">
-        <v>2364.682813899814</v>
+        <v>2486.29045813441</v>
       </c>
       <c r="AC2" t="n">
-        <v>2139.000804994389</v>
+        <v>2249.002386340635</v>
       </c>
       <c r="AD2" t="n">
-        <v>1728260.903676276</v>
+        <v>1817139.520243127</v>
       </c>
       <c r="AE2" t="n">
-        <v>2364682.813899814</v>
+        <v>2486290.45813441</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016625032968519e-06</v>
+        <v>2.037822189575951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30045572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2139000.804994389</v>
+        <v>2249002.386340635</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1102.739139787623</v>
+        <v>1180.497183356815</v>
       </c>
       <c r="AB3" t="n">
-        <v>1508.81634047477</v>
+        <v>1615.208326128912</v>
       </c>
       <c r="AC3" t="n">
-        <v>1364.817026576891</v>
+        <v>1461.055110442291</v>
       </c>
       <c r="AD3" t="n">
-        <v>1102739.139787623</v>
+        <v>1180497.183356815</v>
       </c>
       <c r="AE3" t="n">
-        <v>1508816.34047477</v>
+        <v>1615208.326128912</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.314841830321027e-06</v>
+        <v>2.635596971074995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6025390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1364817.026576891</v>
+        <v>1461055.110442291</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>944.1743716644503</v>
+        <v>1010.897272599105</v>
       </c>
       <c r="AB4" t="n">
-        <v>1291.861029344785</v>
+        <v>1383.154246010219</v>
       </c>
       <c r="AC4" t="n">
-        <v>1168.567625842461</v>
+        <v>1251.147946040179</v>
       </c>
       <c r="AD4" t="n">
-        <v>944174.3716644503</v>
+        <v>1010897.272599105</v>
       </c>
       <c r="AE4" t="n">
-        <v>1291861.029344785</v>
+        <v>1383154.246010219</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.421238741633205e-06</v>
+        <v>2.848869298376634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1168567.62584246</v>
+        <v>1251147.94604018</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>861.7141288086581</v>
+        <v>917.3166357627543</v>
       </c>
       <c r="AB5" t="n">
-        <v>1179.035287180325</v>
+        <v>1255.113090204401</v>
       </c>
       <c r="AC5" t="n">
-        <v>1066.509814158253</v>
+        <v>1135.326858437578</v>
       </c>
       <c r="AD5" t="n">
-        <v>861714.1288086581</v>
+        <v>917316.6357627544</v>
       </c>
       <c r="AE5" t="n">
-        <v>1179035.287180325</v>
+        <v>1255113.090204401</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.477542561686444e-06</v>
+        <v>2.961730156747741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2158203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1066509.814158252</v>
+        <v>1135326.858437578</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>792.232689709598</v>
+        <v>858.8702497896808</v>
       </c>
       <c r="AB6" t="n">
-        <v>1083.967716900236</v>
+        <v>1175.144166443472</v>
       </c>
       <c r="AC6" t="n">
-        <v>980.5153593575228</v>
+        <v>1062.990056523303</v>
       </c>
       <c r="AD6" t="n">
-        <v>792232.6897095981</v>
+        <v>858870.2497896808</v>
       </c>
       <c r="AE6" t="n">
-        <v>1083967.716900236</v>
+        <v>1175144.166443472</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.511141586311342e-06</v>
+        <v>3.029079312737732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.966796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>980515.3593575228</v>
+        <v>1062990.056523303</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>786.3780398516313</v>
+        <v>853.0155999317141</v>
       </c>
       <c r="AB7" t="n">
-        <v>1075.957126675643</v>
+        <v>1167.13357621888</v>
       </c>
       <c r="AC7" t="n">
-        <v>973.2692886210313</v>
+        <v>1055.743985786811</v>
       </c>
       <c r="AD7" t="n">
-        <v>786378.0398516314</v>
+        <v>853015.599931714</v>
       </c>
       <c r="AE7" t="n">
-        <v>1075957.126675643</v>
+        <v>1167133.57621888</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.516334162844281e-06</v>
+        <v>3.039487818663458e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.92936197916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>973269.2886210312</v>
+        <v>1055743.985786811</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1238.073238334966</v>
+        <v>1312.50473003705</v>
       </c>
       <c r="AB2" t="n">
-        <v>1693.986424626294</v>
+        <v>1795.826875258748</v>
       </c>
       <c r="AC2" t="n">
-        <v>1532.314737784839</v>
+        <v>1624.435678742902</v>
       </c>
       <c r="AD2" t="n">
-        <v>1238073.238334966</v>
+        <v>1312504.73003705</v>
       </c>
       <c r="AE2" t="n">
-        <v>1693986.424626294</v>
+        <v>1795826.875258748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.190709968315026e-06</v>
+        <v>2.491039718236129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4970703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1532314.737784839</v>
+        <v>1624435.678742902</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>852.1599345478835</v>
+        <v>926.5059958868447</v>
       </c>
       <c r="AB3" t="n">
-        <v>1165.96281709143</v>
+        <v>1267.686378132138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1054.684962267315</v>
+        <v>1146.700169412213</v>
       </c>
       <c r="AD3" t="n">
-        <v>852159.9345478835</v>
+        <v>926505.9958868447</v>
       </c>
       <c r="AE3" t="n">
-        <v>1165962.81709143</v>
+        <v>1267686.378132138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.450021081927767e-06</v>
+        <v>3.033534784690866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.904296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1054684.962267315</v>
+        <v>1146700.169412212</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.8847626405368</v>
+        <v>790.111097183448</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.238241306137</v>
+        <v>1081.064860407902</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.0133986271373</v>
+        <v>977.8895474146316</v>
       </c>
       <c r="AD4" t="n">
-        <v>736884.7626405368</v>
+        <v>790111.097183448</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008238.241306136</v>
+        <v>1081064.860407901</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.541548890127274e-06</v>
+        <v>3.225016683402702e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>912013.3986271373</v>
+        <v>977889.5474146316</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>723.5590722835332</v>
+        <v>776.7854068264444</v>
       </c>
       <c r="AB5" t="n">
-        <v>990.0054438717164</v>
+        <v>1062.832062973481</v>
       </c>
       <c r="AC5" t="n">
-        <v>895.5207137899664</v>
+        <v>961.3968625774609</v>
       </c>
       <c r="AD5" t="n">
-        <v>723559.0722835332</v>
+        <v>776785.4068264444</v>
       </c>
       <c r="AE5" t="n">
-        <v>990005.4438717164</v>
+        <v>1062832.062973481</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.55194254621482e-06</v>
+        <v>3.246760861935448e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.123046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>895520.7137899664</v>
+        <v>961396.8625774608</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>947.5515253162616</v>
+        <v>1019.238629535927</v>
       </c>
       <c r="AB2" t="n">
-        <v>1296.481799960697</v>
+        <v>1394.567258565877</v>
       </c>
       <c r="AC2" t="n">
-        <v>1172.747396596083</v>
+        <v>1261.471716695789</v>
       </c>
       <c r="AD2" t="n">
-        <v>947551.5253162617</v>
+        <v>1019238.629535927</v>
       </c>
       <c r="AE2" t="n">
-        <v>1296481.799960697</v>
+        <v>1394567.258565876</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.3351928902477e-06</v>
+        <v>2.902516768336771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.3740234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1172747.396596082</v>
+        <v>1261471.716695789</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.499071152836</v>
+        <v>739.9207901696076</v>
       </c>
       <c r="AB3" t="n">
-        <v>928.3523624177462</v>
+        <v>1012.392268111493</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.7517158993198</v>
+        <v>915.7709709444036</v>
       </c>
       <c r="AD3" t="n">
-        <v>678499.071152836</v>
+        <v>739920.7901696076</v>
       </c>
       <c r="AE3" t="n">
-        <v>928352.3624177462</v>
+        <v>1012392.268111493</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.562406076418857e-06</v>
+        <v>3.396445464082494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.42903645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>839751.7158993199</v>
+        <v>915770.9709444037</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>666.820474445497</v>
+        <v>728.2421934622688</v>
       </c>
       <c r="AB4" t="n">
-        <v>912.3731911794409</v>
+        <v>996.4130968731874</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.2975743370906</v>
+        <v>901.3168293821745</v>
       </c>
       <c r="AD4" t="n">
-        <v>666820.474445497</v>
+        <v>728242.1934622688</v>
       </c>
       <c r="AE4" t="n">
-        <v>912373.1911794409</v>
+        <v>996413.0968731875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.575132647928203e-06</v>
+        <v>3.42411119498858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.33626302083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>825297.5743370906</v>
+        <v>901316.8293821745</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.2395502596999</v>
+        <v>624.2285629599228</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.1221775081149</v>
+        <v>854.0970588623585</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.0501661810572</v>
+        <v>772.5832342972851</v>
       </c>
       <c r="AD2" t="n">
-        <v>567239.5502596998</v>
+        <v>624228.5629599228</v>
       </c>
       <c r="AE2" t="n">
-        <v>776122.1775081148</v>
+        <v>854097.0588623584</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.566131581391437e-06</v>
+        <v>3.725086194764554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.23795572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>702050.1661810572</v>
+        <v>772583.2342972851</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2319.473848690978</v>
+        <v>2423.097904055339</v>
       </c>
       <c r="AB2" t="n">
-        <v>3173.606447743437</v>
+        <v>3315.389451863641</v>
       </c>
       <c r="AC2" t="n">
-        <v>2870.721902555308</v>
+        <v>2998.973335755971</v>
       </c>
       <c r="AD2" t="n">
-        <v>2319473.848690978</v>
+        <v>2423097.904055339</v>
       </c>
       <c r="AE2" t="n">
-        <v>3173606.447743436</v>
+        <v>3315389.451863641</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.735861875985431e-07</v>
+        <v>1.695262307096752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.34798177083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2870721.902555308</v>
+        <v>2998973.335755971</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1354.498010652758</v>
+        <v>1434.990212560241</v>
       </c>
       <c r="AB3" t="n">
-        <v>1853.28393440995</v>
+        <v>1963.416916125095</v>
       </c>
       <c r="AC3" t="n">
-        <v>1676.409116810202</v>
+        <v>1776.031161323064</v>
       </c>
       <c r="AD3" t="n">
-        <v>1354498.010652758</v>
+        <v>1434990.212560241</v>
       </c>
       <c r="AE3" t="n">
-        <v>1853283.934409949</v>
+        <v>1963416.916125095</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202892039399865e-06</v>
+        <v>2.334306062584469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.3251953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1676409.116810202</v>
+        <v>1776031.161323064</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1146.718557612335</v>
+        <v>1215.772844073236</v>
       </c>
       <c r="AB4" t="n">
-        <v>1568.990920177521</v>
+        <v>1663.474041373436</v>
       </c>
       <c r="AC4" t="n">
-        <v>1419.248628848365</v>
+        <v>1504.714413565235</v>
       </c>
       <c r="AD4" t="n">
-        <v>1146718.557612335</v>
+        <v>1215772.844073236</v>
       </c>
       <c r="AE4" t="n">
-        <v>1568990.920177521</v>
+        <v>1663474.041373436</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.32283657513372e-06</v>
+        <v>2.567067813237591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1419248.628848365</v>
+        <v>1504714.413565235</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1039.405652174645</v>
+        <v>1108.545189981566</v>
       </c>
       <c r="AB5" t="n">
-        <v>1422.160668646416</v>
+        <v>1516.76043449498</v>
       </c>
       <c r="AC5" t="n">
-        <v>1286.431650445835</v>
+        <v>1372.002947413418</v>
       </c>
       <c r="AD5" t="n">
-        <v>1039405.652174645</v>
+        <v>1108545.189981566</v>
       </c>
       <c r="AE5" t="n">
-        <v>1422160.668646416</v>
+        <v>1516760.43449498</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385073805498085e-06</v>
+        <v>2.687844025399145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.572265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1286431.650445835</v>
+        <v>1372002.947413418</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>975.8893143373483</v>
+        <v>1044.858259943677</v>
       </c>
       <c r="AB6" t="n">
-        <v>1335.254813074367</v>
+        <v>1429.621167148084</v>
       </c>
       <c r="AC6" t="n">
-        <v>1207.819967756449</v>
+        <v>1293.18012944138</v>
       </c>
       <c r="AD6" t="n">
-        <v>975889.3143373483</v>
+        <v>1044858.259943677</v>
       </c>
       <c r="AE6" t="n">
-        <v>1335254.813074367</v>
+        <v>1429621.167148084</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.423775121215166e-06</v>
+        <v>2.762946954797074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.25813802083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1207819.967756449</v>
+        <v>1293180.12944138</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>901.7481895392117</v>
+        <v>970.8023864915613</v>
       </c>
       <c r="AB7" t="n">
-        <v>1233.811655249977</v>
+        <v>1328.294653976344</v>
       </c>
       <c r="AC7" t="n">
-        <v>1116.058402538453</v>
+        <v>1201.524076474096</v>
       </c>
       <c r="AD7" t="n">
-        <v>901748.1895392117</v>
+        <v>970802.3864915613</v>
       </c>
       <c r="AE7" t="n">
-        <v>1233811.655249977</v>
+        <v>1328294.653976344</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.460014521174163e-06</v>
+        <v>2.833272344156966e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.97819010416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1116058.402538453</v>
+        <v>1201524.076474096</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>870.9609330672175</v>
+        <v>940.0151300195672</v>
       </c>
       <c r="AB8" t="n">
-        <v>1191.687172707099</v>
+        <v>1286.170171433465</v>
       </c>
       <c r="AC8" t="n">
-        <v>1077.954221487384</v>
+        <v>1163.419895423027</v>
       </c>
       <c r="AD8" t="n">
-        <v>870960.9330672175</v>
+        <v>940015.1300195672</v>
       </c>
       <c r="AE8" t="n">
-        <v>1191687.172707099</v>
+        <v>1286170.171433465</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.468877417903266e-06</v>
+        <v>2.850471488293896e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1077954.221487384</v>
+        <v>1163419.895423027</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>862.5538241994468</v>
+        <v>931.6080211517967</v>
       </c>
       <c r="AB9" t="n">
-        <v>1180.184195458748</v>
+        <v>1274.667194185115</v>
       </c>
       <c r="AC9" t="n">
-        <v>1067.549072243086</v>
+        <v>1153.014746178729</v>
       </c>
       <c r="AD9" t="n">
-        <v>862553.8241994468</v>
+        <v>931608.0211517967</v>
       </c>
       <c r="AE9" t="n">
-        <v>1180184.195458748</v>
+        <v>1274667.194185115</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.472619529855553e-06</v>
+        <v>2.857733349151711e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.8837890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1067549.072243086</v>
+        <v>1153014.746178729</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3363.431737636169</v>
+        <v>3495.286875381539</v>
       </c>
       <c r="AB2" t="n">
-        <v>4601.995687569907</v>
+        <v>4782.405704071264</v>
       </c>
       <c r="AC2" t="n">
-        <v>4162.787678089576</v>
+        <v>4325.979615823084</v>
       </c>
       <c r="AD2" t="n">
-        <v>3363431.737636169</v>
+        <v>3495286.875381539</v>
       </c>
       <c r="AE2" t="n">
-        <v>4601995.687569907</v>
+        <v>4782405.704071264</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.135171191147798e-07</v>
+        <v>1.338837977739744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.6455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4162787.678089575</v>
+        <v>4325979.615823084</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1714.950057526797</v>
+        <v>1798.772621109648</v>
       </c>
       <c r="AB3" t="n">
-        <v>2346.47032696501</v>
+        <v>2461.160056449581</v>
       </c>
       <c r="AC3" t="n">
-        <v>2122.526492251257</v>
+        <v>2226.270394921866</v>
       </c>
       <c r="AD3" t="n">
-        <v>1714950.057526797</v>
+        <v>1798772.621109648</v>
       </c>
       <c r="AE3" t="n">
-        <v>2346470.32696501</v>
+        <v>2461160.05644958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.073644458793007e-06</v>
+        <v>2.014578119450387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.38639322916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2122526.492251256</v>
+        <v>2226270.394921866</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1402.278271932456</v>
+        <v>1486.100746006756</v>
       </c>
       <c r="AB4" t="n">
-        <v>1918.658995809192</v>
+        <v>2033.348602824214</v>
       </c>
       <c r="AC4" t="n">
-        <v>1735.544874103975</v>
+        <v>1839.288665993358</v>
       </c>
       <c r="AD4" t="n">
-        <v>1402278.271932456</v>
+        <v>1486100.746006756</v>
       </c>
       <c r="AE4" t="n">
-        <v>1918658.995809192</v>
+        <v>2033348.602824214</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210293567919923e-06</v>
+        <v>2.270985445949288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.76204427083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1735544.874103975</v>
+        <v>1839288.665993358</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1274.988124135404</v>
+        <v>1346.823857014131</v>
       </c>
       <c r="AB5" t="n">
-        <v>1744.494999948277</v>
+        <v>1842.783818841816</v>
       </c>
       <c r="AC5" t="n">
-        <v>1578.002845567323</v>
+        <v>1666.911117534887</v>
       </c>
       <c r="AD5" t="n">
-        <v>1274988.124135404</v>
+        <v>1346823.857014131</v>
       </c>
       <c r="AE5" t="n">
-        <v>1744494.999948277</v>
+        <v>1842783.818841816</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.282508826284911e-06</v>
+        <v>2.40648959557822e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.04264322916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1578002.845567323</v>
+        <v>1666911.117534887</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1186.303299425382</v>
+        <v>1258.224283650128</v>
       </c>
       <c r="AB6" t="n">
-        <v>1623.152510281688</v>
+        <v>1721.557973827876</v>
       </c>
       <c r="AC6" t="n">
-        <v>1468.241112809259</v>
+        <v>1557.254897027535</v>
       </c>
       <c r="AD6" t="n">
-        <v>1186303.299425381</v>
+        <v>1258224.283650128</v>
       </c>
       <c r="AE6" t="n">
-        <v>1623152.510281688</v>
+        <v>1721557.973827876</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.327204472395174e-06</v>
+        <v>2.490356158620569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.63736979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1468241.112809259</v>
+        <v>1557254.897027535</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1131.229197516372</v>
+        <v>1202.979589540526</v>
       </c>
       <c r="AB7" t="n">
-        <v>1547.797694351884</v>
+        <v>1645.969746123226</v>
       </c>
       <c r="AC7" t="n">
-        <v>1400.078054750647</v>
+        <v>1488.880703686272</v>
       </c>
       <c r="AD7" t="n">
-        <v>1131229.197516372</v>
+        <v>1202979.589540526</v>
       </c>
       <c r="AE7" t="n">
-        <v>1547797.694351884</v>
+        <v>1645969.746123226</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.358140312378073e-06</v>
+        <v>2.548403928369625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.3720703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1400078.054750647</v>
+        <v>1488880.703686272</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1085.984218351988</v>
+        <v>1145.918461381161</v>
       </c>
       <c r="AB8" t="n">
-        <v>1485.891517791569</v>
+        <v>1567.896193216274</v>
       </c>
       <c r="AC8" t="n">
-        <v>1344.080116795384</v>
+        <v>1418.25838109184</v>
       </c>
       <c r="AD8" t="n">
-        <v>1085984.218351988</v>
+        <v>1145918.461381161</v>
       </c>
       <c r="AE8" t="n">
-        <v>1485891.517791569</v>
+        <v>1567896.193216274</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.381579430401926e-06</v>
+        <v>2.592384907289923e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.18001302083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1344080.116795384</v>
+        <v>1418258.38109184</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1053.133664264235</v>
+        <v>1113.067907293408</v>
       </c>
       <c r="AB9" t="n">
-        <v>1440.943940424542</v>
+        <v>1522.948615849248</v>
       </c>
       <c r="AC9" t="n">
-        <v>1303.422273127945</v>
+        <v>1377.600537424401</v>
       </c>
       <c r="AD9" t="n">
-        <v>1053133.664264234</v>
+        <v>1113067.907293408</v>
       </c>
       <c r="AE9" t="n">
-        <v>1440943.940424542</v>
+        <v>1522948.615849247</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394959655670603e-06</v>
+        <v>2.617491458009607e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.07259114583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1303422.273127945</v>
+        <v>1377600.537424401</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1005.832567146594</v>
+        <v>1077.668210516769</v>
       </c>
       <c r="AB10" t="n">
-        <v>1376.224492571058</v>
+        <v>1474.513188995049</v>
       </c>
       <c r="AC10" t="n">
-        <v>1244.879558543282</v>
+        <v>1333.787719729619</v>
       </c>
       <c r="AD10" t="n">
-        <v>1005832.567146594</v>
+        <v>1077668.210516769</v>
       </c>
       <c r="AE10" t="n">
-        <v>1376224.492571058</v>
+        <v>1474513.188995049</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410237785232709e-06</v>
+        <v>2.646159221597331e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.9521484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1244879.558543282</v>
+        <v>1333787.719729619</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>973.459582086528</v>
+        <v>1045.295225456703</v>
       </c>
       <c r="AB11" t="n">
-        <v>1331.930346216573</v>
+        <v>1430.219042640564</v>
       </c>
       <c r="AC11" t="n">
-        <v>1204.812783349644</v>
+        <v>1293.720944535981</v>
       </c>
       <c r="AD11" t="n">
-        <v>973459.5820865281</v>
+        <v>1045295.225456703</v>
       </c>
       <c r="AE11" t="n">
-        <v>1331930.346216573</v>
+        <v>1430219.042640564</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.421150734919928e-06</v>
+        <v>2.666636195588563e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.86751302083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1204812.783349644</v>
+        <v>1293720.944535981</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>957.296241798895</v>
+        <v>1029.13188516907</v>
       </c>
       <c r="AB12" t="n">
-        <v>1309.814950958786</v>
+        <v>1408.103647382777</v>
       </c>
       <c r="AC12" t="n">
-        <v>1184.808050376109</v>
+        <v>1273.716211562445</v>
       </c>
       <c r="AD12" t="n">
-        <v>957296.2417988951</v>
+        <v>1029131.88516907</v>
       </c>
       <c r="AE12" t="n">
-        <v>1309814.950958786</v>
+        <v>1408103.647382777</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.424851648292116e-06</v>
+        <v>2.673580560681241e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.83984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1184808.050376109</v>
+        <v>1273716.211562445</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>959.9296183208421</v>
+        <v>1031.765261691017</v>
       </c>
       <c r="AB13" t="n">
-        <v>1313.418052892487</v>
+        <v>1411.706749316478</v>
       </c>
       <c r="AC13" t="n">
-        <v>1188.067277318242</v>
+        <v>1276.975438504579</v>
       </c>
       <c r="AD13" t="n">
-        <v>959929.6183208422</v>
+        <v>1031765.261691017</v>
       </c>
       <c r="AE13" t="n">
-        <v>1313418.052892487</v>
+        <v>1411706.749316478</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.426464866941531e-06</v>
+        <v>2.676607591619076e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.82845052083333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1188067.277318242</v>
+        <v>1276975.438504579</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.4813104871879</v>
+        <v>593.4320690292294</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.45968807539</v>
+        <v>811.95993722096</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.3182722310321</v>
+        <v>734.4676204055201</v>
       </c>
       <c r="AD2" t="n">
-        <v>529481.3104871879</v>
+        <v>593432.0690292295</v>
       </c>
       <c r="AE2" t="n">
-        <v>724459.6880753899</v>
+        <v>811959.93722096</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.500407612223412e-06</v>
+        <v>3.752405572939754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2275390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>655318.2722310321</v>
+        <v>734467.6204055201</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1395.694693529237</v>
+        <v>1471.392411858188</v>
       </c>
       <c r="AB2" t="n">
-        <v>1909.651053390926</v>
+        <v>2013.224011156237</v>
       </c>
       <c r="AC2" t="n">
-        <v>1727.396637067382</v>
+        <v>1821.084737109131</v>
       </c>
       <c r="AD2" t="n">
-        <v>1395694.693529237</v>
+        <v>1471392.411858188</v>
       </c>
       <c r="AE2" t="n">
-        <v>1909651.053390926</v>
+        <v>2013224.011156237</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.128623323258546e-06</v>
+        <v>2.324155340033803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.07161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1727396.637067382</v>
+        <v>1821084.737109131</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>943.4775788444367</v>
+        <v>1008.276009344474</v>
       </c>
       <c r="AB3" t="n">
-        <v>1290.907646668112</v>
+        <v>1379.567717983259</v>
       </c>
       <c r="AC3" t="n">
-        <v>1167.705232670369</v>
+        <v>1247.90371121439</v>
       </c>
       <c r="AD3" t="n">
-        <v>943477.5788444367</v>
+        <v>1008276.009344474</v>
       </c>
       <c r="AE3" t="n">
-        <v>1290907.646668112</v>
+        <v>1379567.717983259</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.402026287759366e-06</v>
+        <v>2.887169542231083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.13216145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1167705.232670369</v>
+        <v>1247903.71121439</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>808.6452548782662</v>
+        <v>873.3583445237316</v>
       </c>
       <c r="AB4" t="n">
-        <v>1106.424112635281</v>
+        <v>1194.96741682823</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000.828548201364</v>
+        <v>1080.921403713446</v>
       </c>
       <c r="AD4" t="n">
-        <v>808645.2548782662</v>
+        <v>873358.3445237316</v>
       </c>
       <c r="AE4" t="n">
-        <v>1106424.112635281</v>
+        <v>1194967.41682823</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.498804248435114e-06</v>
+        <v>3.08646279576116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34928385416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000828.548201364</v>
+        <v>1080921.403713446</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>747.9368844685599</v>
+        <v>802.0067088488254</v>
       </c>
       <c r="AB5" t="n">
-        <v>1023.360241976441</v>
+        <v>1097.340961085819</v>
       </c>
       <c r="AC5" t="n">
-        <v>925.6921767773289</v>
+        <v>992.6122798874997</v>
       </c>
       <c r="AD5" t="n">
-        <v>747936.8844685599</v>
+        <v>802006.7088488254</v>
       </c>
       <c r="AE5" t="n">
-        <v>1023360.241976441</v>
+        <v>1097340.961085819</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.537891675317113e-06</v>
+        <v>3.166954887359701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.06119791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>925692.1767773288</v>
+        <v>992612.2798874996</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>752.5811263965209</v>
+        <v>806.6509507767864</v>
       </c>
       <c r="AB6" t="n">
-        <v>1029.71469867177</v>
+        <v>1103.695417781149</v>
       </c>
       <c r="AC6" t="n">
-        <v>931.4401730441922</v>
+        <v>998.360276154363</v>
       </c>
       <c r="AD6" t="n">
-        <v>752581.1263965209</v>
+        <v>806650.9507767864</v>
       </c>
       <c r="AE6" t="n">
-        <v>1029714.69867177</v>
+        <v>1103695.417781149</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.537996187153695e-06</v>
+        <v>3.167170106855954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.0595703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>931440.1730441921</v>
+        <v>998360.2761543629</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1905.02943202628</v>
+        <v>2006.29585713067</v>
       </c>
       <c r="AB2" t="n">
-        <v>2606.545312865371</v>
+        <v>2745.102503252569</v>
       </c>
       <c r="AC2" t="n">
-        <v>2357.780286514823</v>
+        <v>2483.113773117704</v>
       </c>
       <c r="AD2" t="n">
-        <v>1905029.43202628</v>
+        <v>2006295.85713067</v>
       </c>
       <c r="AE2" t="n">
-        <v>2606545.312865371</v>
+        <v>2745102.503252569</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.659759722097535e-07</v>
+        <v>1.913776248505934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2357780.286514823</v>
+        <v>2483113.773117704</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1181.762318710046</v>
+        <v>1260.506129156888</v>
       </c>
       <c r="AB3" t="n">
-        <v>1616.939340133034</v>
+        <v>1724.680095518145</v>
       </c>
       <c r="AC3" t="n">
-        <v>1462.620918899354</v>
+        <v>1560.079047805609</v>
       </c>
       <c r="AD3" t="n">
-        <v>1181762.318710045</v>
+        <v>1260506.129156888</v>
       </c>
       <c r="AE3" t="n">
-        <v>1616939.340133034</v>
+        <v>1724680.095518145</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275591395802401e-06</v>
+        <v>2.527181406490596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1462620.918899354</v>
+        <v>1560079.047805609</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1009.300115725288</v>
+        <v>1076.867959697929</v>
       </c>
       <c r="AB4" t="n">
-        <v>1380.968945513875</v>
+        <v>1473.418250520139</v>
       </c>
       <c r="AC4" t="n">
-        <v>1249.171207556118</v>
+        <v>1332.797280645998</v>
       </c>
       <c r="AD4" t="n">
-        <v>1009300.115725288</v>
+        <v>1076867.959697929</v>
       </c>
       <c r="AE4" t="n">
-        <v>1380968.945513875</v>
+        <v>1473418.250520139</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386477387612312e-06</v>
+        <v>2.746866971683673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8115234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1249171.207556118</v>
+        <v>1332797.280645998</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>922.8906985106682</v>
+        <v>990.2879502827175</v>
       </c>
       <c r="AB5" t="n">
-        <v>1262.73976876639</v>
+        <v>1354.955661997807</v>
       </c>
       <c r="AC5" t="n">
-        <v>1142.225657501722</v>
+        <v>1225.640595308951</v>
       </c>
       <c r="AD5" t="n">
-        <v>922890.6985106682</v>
+        <v>990287.9502827175</v>
       </c>
       <c r="AE5" t="n">
-        <v>1262739.76876639</v>
+        <v>1354955.661997807</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445240925921739e-06</v>
+        <v>2.86328836013445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.33138020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1142225.657501722</v>
+        <v>1225640.595308951</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>858.7599970307713</v>
+        <v>915.0666231831901</v>
       </c>
       <c r="AB6" t="n">
-        <v>1174.993313754724</v>
+        <v>1252.034523729492</v>
       </c>
       <c r="AC6" t="n">
-        <v>1062.853601003446</v>
+        <v>1132.542106026239</v>
       </c>
       <c r="AD6" t="n">
-        <v>858759.9970307712</v>
+        <v>915066.6231831901</v>
       </c>
       <c r="AE6" t="n">
-        <v>1174993.313754724</v>
+        <v>1252034.523729492</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.482773117341972e-06</v>
+        <v>2.937646541456609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.044921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1062853.601003446</v>
+        <v>1132542.106026239</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>814.8478952768045</v>
+        <v>882.3303983948742</v>
       </c>
       <c r="AB7" t="n">
-        <v>1114.910838869743</v>
+        <v>1207.243376753809</v>
       </c>
       <c r="AC7" t="n">
-        <v>1008.505313195204</v>
+        <v>1092.025763253146</v>
       </c>
       <c r="AD7" t="n">
-        <v>814847.8952768045</v>
+        <v>882330.3983948742</v>
       </c>
       <c r="AE7" t="n">
-        <v>1114910.838869743</v>
+        <v>1207243.376753809</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.495954664462751e-06</v>
+        <v>2.963761613181012e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.947265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1008505.313195204</v>
+        <v>1092025.763253146</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>816.2345350335937</v>
+        <v>883.7170381516636</v>
       </c>
       <c r="AB8" t="n">
-        <v>1116.808100559211</v>
+        <v>1209.140638443276</v>
       </c>
       <c r="AC8" t="n">
-        <v>1010.221502891852</v>
+        <v>1093.741952949794</v>
       </c>
       <c r="AD8" t="n">
-        <v>816234.5350335938</v>
+        <v>883717.0381516636</v>
       </c>
       <c r="AE8" t="n">
-        <v>1116808.10055921</v>
+        <v>1209140.638443277</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.498168359399065e-06</v>
+        <v>2.968147350417171e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.93098958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1010221.502891852</v>
+        <v>1093741.952949794</v>
       </c>
     </row>
   </sheetData>
